--- a/src/data/profiles/xlsx/bluff/profile 35-7 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 35-7 graph.xlsx
@@ -14038,11 +14038,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51494625"/>
-        <c:axId val="32950649"/>
+        <c:axId val="97284554"/>
+        <c:axId val="33320087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51494625"/>
+        <c:axId val="97284554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14077,12 +14077,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32950649"/>
+        <c:crossAx val="33320087"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32950649"/>
+        <c:axId val="33320087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14126,7 +14126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51494625"/>
+        <c:crossAx val="97284554"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
